--- a/Modello/nuovi modelli/Soluzioni-Vuote.xlsx
+++ b/Modello/nuovi modelli/Soluzioni-Vuote.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADDITIVE-MODEL" sheetId="4" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="CCR-DUAL" sheetId="8" r:id="rId4"/>
     <sheet name="CCR-OUTPUT" sheetId="9" r:id="rId5"/>
     <sheet name="SBM-DUAL" sheetId="10" r:id="rId6"/>
+    <sheet name="HYBRID" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ADDITIVE_DMU_1">'ADDITIVE-MODEL'!$B$2:$B$45</definedName>
@@ -200,6 +201,43 @@
     <definedName name="CCRO_DMU_7">'CCR-OUTPUT'!$H$2:$H$45</definedName>
     <definedName name="CCRO_DMU_8">'CCR-OUTPUT'!$I$2:$I$45</definedName>
     <definedName name="CCRO_DMU_9">'CCR-OUTPUT'!$J$2:$J$45</definedName>
+    <definedName name="HYBRID_DMU_1">HYBRID!$B$2:$B$47</definedName>
+    <definedName name="HYBRID_DMU_10">HYBRID!$K$2:$K$47</definedName>
+    <definedName name="HYBRID_DMU_11">HYBRID!$L$2:$L$47</definedName>
+    <definedName name="HYBRID_DMU_12">HYBRID!$M$2:$M$47</definedName>
+    <definedName name="HYBRID_DMU_13">HYBRID!$N$2:$N$47</definedName>
+    <definedName name="HYBRID_DMU_14">HYBRID!$O$2:$O$47</definedName>
+    <definedName name="HYBRID_DMU_15">HYBRID!$P$2:$P$47</definedName>
+    <definedName name="HYBRID_DMU_16">HYBRID!$Q$2:$Q$47</definedName>
+    <definedName name="HYBRID_DMU_17">HYBRID!$R$2:$R$47</definedName>
+    <definedName name="HYBRID_DMU_18">HYBRID!$S$2:$S$47</definedName>
+    <definedName name="HYBRID_DMU_19">HYBRID!$T$2:$T$47</definedName>
+    <definedName name="HYBRID_DMU_2">HYBRID!$C$2:$C$47</definedName>
+    <definedName name="HYBRID_DMU_20">HYBRID!$U$2:$U$47</definedName>
+    <definedName name="HYBRID_DMU_21">HYBRID!$V$2:$V$47</definedName>
+    <definedName name="HYBRID_DMU_22">HYBRID!$W$2:$W$47</definedName>
+    <definedName name="HYBRID_DMU_23">HYBRID!$X$2:$X$47</definedName>
+    <definedName name="HYBRID_DMU_24">HYBRID!$Y$2:$Y$47</definedName>
+    <definedName name="HYBRID_DMU_25">HYBRID!$Z$2:$Z$47</definedName>
+    <definedName name="HYBRID_DMU_26">HYBRID!$AA$2:$AA$47</definedName>
+    <definedName name="HYBRID_DMU_27">HYBRID!$AB$2:$AB$47</definedName>
+    <definedName name="HYBRID_DMU_28">HYBRID!$AC$2:$AC$47</definedName>
+    <definedName name="HYBRID_DMU_29">HYBRID!$AD$2:$AD$47</definedName>
+    <definedName name="HYBRID_DMU_3">HYBRID!$D$2:$D$47</definedName>
+    <definedName name="HYBRID_DMU_30">HYBRID!$AE$2:$AE$47</definedName>
+    <definedName name="HYBRID_DMU_31">HYBRID!$AF$2:$AF$47</definedName>
+    <definedName name="HYBRID_DMU_32">HYBRID!$AG$2:$AG$47</definedName>
+    <definedName name="HYBRID_DMU_33">HYBRID!$AH$2:$AH$47</definedName>
+    <definedName name="HYBRID_DMU_34">HYBRID!$AI$2:$AI$47</definedName>
+    <definedName name="HYBRID_DMU_35">HYBRID!$AJ$2:$AJ$47</definedName>
+    <definedName name="HYBRID_DMU_36">HYBRID!$AK$2:$AK$47</definedName>
+    <definedName name="HYBRID_DMU_37">HYBRID!$AL$2:$AL$47</definedName>
+    <definedName name="HYBRID_DMU_4">HYBRID!$E$2:$E$47</definedName>
+    <definedName name="HYBRID_DMU_5">HYBRID!$F$2:$F$47</definedName>
+    <definedName name="HYBRID_DMU_6">HYBRID!$G$2:$G$47</definedName>
+    <definedName name="HYBRID_DMU_7">HYBRID!$H$2:$H$47</definedName>
+    <definedName name="HYBRID_DMU_8">HYBRID!$I$2:$I$47</definedName>
+    <definedName name="HYBRID_DMU_9">HYBRID!$J$2:$J$47</definedName>
     <definedName name="SBM_DMU_1">'SBM-DUAL'!$B$2:$B$8</definedName>
     <definedName name="SBM_DMU_10">'SBM-DUAL'!$K$2:$K$8</definedName>
     <definedName name="SBM_DMU_11">'SBM-DUAL'!$L$2:$L$8</definedName>
@@ -243,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="94">
   <si>
     <t>ANSPs</t>
   </si>
@@ -505,11 +543,32 @@
   <si>
     <t>s_meno_3</t>
   </si>
+  <si>
+    <t>s_meno_nr_1</t>
+  </si>
+  <si>
+    <t>s_meno_nr_2</t>
+  </si>
+  <si>
+    <t>s_meno_nr_3</t>
+  </si>
+  <si>
+    <t>s_piu_nr_1</t>
+  </si>
+  <si>
+    <t>s_piu_nr_2</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -668,6 +727,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -703,6 +779,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8900,8 +8993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AX79"/>
+    <sheetView topLeftCell="H26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10916,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:BB25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11372,4 +11465,2104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="4"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modello/nuovi modelli/Soluzioni-Vuote.xlsx
+++ b/Modello/nuovi modelli/Soluzioni-Vuote.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ADDITIVE-MODEL" sheetId="4" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="CCR-OUTPUT" sheetId="9" r:id="rId5"/>
     <sheet name="SBM-DUAL" sheetId="10" r:id="rId6"/>
     <sheet name="HYBRID" sheetId="11" r:id="rId7"/>
+    <sheet name="NDSC" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="ADDITIVE_DMU_1">'ADDITIVE-MODEL'!$B$2:$B$45</definedName>
@@ -238,6 +239,43 @@
     <definedName name="HYBRID_DMU_7">HYBRID!$H$2:$H$47</definedName>
     <definedName name="HYBRID_DMU_8">HYBRID!$I$2:$I$47</definedName>
     <definedName name="HYBRID_DMU_9">HYBRID!$J$2:$J$47</definedName>
+    <definedName name="NDSC_DMU_1">NDSC!$B$2:$B$8</definedName>
+    <definedName name="NDSC_DMU_10">NDSC!$K$2:$K$8</definedName>
+    <definedName name="NDSC_DMU_11">NDSC!$L$2:$L$8</definedName>
+    <definedName name="NDSC_DMU_12">NDSC!$M$2:$M$8</definedName>
+    <definedName name="NDSC_DMU_13">NDSC!$N$2:$N$8</definedName>
+    <definedName name="NDSC_DMU_14">NDSC!$O$2:$O$8</definedName>
+    <definedName name="NDSC_DMU_15">NDSC!$P$2:$P$8</definedName>
+    <definedName name="NDSC_DMU_16">NDSC!$Q$2:$Q$8</definedName>
+    <definedName name="NDSC_DMU_17">NDSC!$R$2:$R$8</definedName>
+    <definedName name="NDSC_DMU_18">NDSC!$S$2:$S$8</definedName>
+    <definedName name="NDSC_DMU_19">NDSC!$T$2:$T$8</definedName>
+    <definedName name="NDSC_DMU_2">NDSC!$C$2:$C$8</definedName>
+    <definedName name="NDSC_DMU_20">NDSC!$U$2:$U$8</definedName>
+    <definedName name="NDSC_DMU_21">NDSC!$V$2:$V$8</definedName>
+    <definedName name="NDSC_DMU_22">NDSC!$W$2:$W$8</definedName>
+    <definedName name="NDSC_DMU_23">NDSC!$X$2:$X$8</definedName>
+    <definedName name="NDSC_DMU_24">NDSC!$Y$2:$Y$8</definedName>
+    <definedName name="NDSC_DMU_25">NDSC!$Z$2:$Z$8</definedName>
+    <definedName name="NDSC_DMU_26">NDSC!$AA$2:$AA$8</definedName>
+    <definedName name="NDSC_DMU_27">NDSC!$AB$2:$AB$8</definedName>
+    <definedName name="NDSC_DMU_28">NDSC!$AC$2:$AC$8</definedName>
+    <definedName name="NDSC_DMU_29">NDSC!$AD$2:$AD$8</definedName>
+    <definedName name="NDSC_DMU_3">NDSC!$D$2:$D$8</definedName>
+    <definedName name="NDSC_DMU_30">NDSC!$AE$2:$AE$8</definedName>
+    <definedName name="NDSC_DMU_31">NDSC!$AF$2:$AF$8</definedName>
+    <definedName name="NDSC_DMU_32">NDSC!$AG$2:$AG$8</definedName>
+    <definedName name="NDSC_DMU_33">NDSC!$AH$2:$AH$8</definedName>
+    <definedName name="NDSC_DMU_34">NDSC!$AI$2:$AI$8</definedName>
+    <definedName name="NDSC_DMU_35">NDSC!$AJ$2:$AJ$8</definedName>
+    <definedName name="NDSC_DMU_36">NDSC!$AK$2:$AK$8</definedName>
+    <definedName name="NDSC_DMU_37">NDSC!$AL$2:$AL$8</definedName>
+    <definedName name="NDSC_DMU_4">NDSC!$E$2:$E$8</definedName>
+    <definedName name="NDSC_DMU_5">NDSC!$F$2:$F$8</definedName>
+    <definedName name="NDSC_DMU_6">NDSC!$G$2:$G$8</definedName>
+    <definedName name="NDSC_DMU_7">NDSC!$H$2:$H$8</definedName>
+    <definedName name="NDSC_DMU_8">NDSC!$I$2:$I$8</definedName>
+    <definedName name="NDSC_DMU_9">NDSC!$J$2:$J$8</definedName>
     <definedName name="SBM_DMU_1">'SBM-DUAL'!$B$2:$B$8</definedName>
     <definedName name="SBM_DMU_10">'SBM-DUAL'!$K$2:$K$8</definedName>
     <definedName name="SBM_DMU_11">'SBM-DUAL'!$L$2:$L$8</definedName>
@@ -281,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="97">
   <si>
     <t>ANSPs</t>
   </si>
@@ -564,13 +602,30 @@
   <si>
     <t>t</t>
   </si>
+  <si>
+    <t>v_d_1</t>
+  </si>
+  <si>
+    <t>v_d_2</t>
+  </si>
+  <si>
+    <t>v_nd_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -613,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,6 +689,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -11010,7 +11066,7 @@
   <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="AL8" sqref="A1:AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11471,7 +11527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13565,4 +13621,433 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG16" sqref="AG16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="H12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>